--- a/BEAM.xlsx
+++ b/BEAM.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD64D76-1BAE-4EBC-94D3-D3D9E3D8EE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF7F1B9-346B-4368-9245-913C8636A53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51630" yWindow="5040" windowWidth="23715" windowHeight="13665" xr2:uid="{D6F23057-6BAB-4FDE-BDDA-B818B27A50B2}"/>
+    <workbookView xWindow="-49935" yWindow="1335" windowWidth="29955" windowHeight="18885" activeTab="1" xr2:uid="{D6F23057-6BAB-4FDE-BDDA-B818B27A50B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="BEAM-101" sheetId="2" r:id="rId2"/>
+    <sheet name="BEAM-302" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Price</t>
   </si>
@@ -56,9 +58,6 @@
     <t>EV</t>
   </si>
   <si>
-    <t>Q222</t>
-  </si>
-  <si>
     <t>Founded 2017</t>
   </si>
   <si>
@@ -159,16 +158,73 @@
   </si>
   <si>
     <t>CEO: John Evans</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>PIC</t>
+  </si>
+  <si>
+    <t>BEAM-302</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Sickle Cell Anemia</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Preclinical "ESCAPE"</t>
+  </si>
+  <si>
+    <t>NTLA-302</t>
+  </si>
+  <si>
+    <t>Phase I/II "BEACON" n=20</t>
+  </si>
+  <si>
+    <t>6 have been dosed</t>
+  </si>
+  <si>
+    <t>Engineered Stem Cell Antibody Paired Evasion (ESCAPE) conditioning platform and anticipates initiating Phase 1-enabling preclinical studies for the program in 2024.</t>
+  </si>
+  <si>
+    <t>Dosing</t>
+  </si>
+  <si>
+    <t>"Conditioning" required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -276,10 +332,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,18 +346,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{4FEFC39F-A248-4082-8B9A-6961977DDC23}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -313,9 +375,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -353,7 +415,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -459,7 +521,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,7 +663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9C4ED6-53E1-4270-91A7-834B4B7EC4A2}">
   <dimension ref="C2:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -626,117 +688,112 @@
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>46.19</v>
+      <c r="K2" s="11">
+        <v>24.5</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="7"/>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>70.354594000000006</v>
+        <v>82.415619000000007</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="7"/>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="1">
         <f>+K2*K3</f>
-        <v>3249.6786968599999</v>
+        <v>2019.1826655000002</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="7"/>
       <c r="J5" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <f>265.623+900.492+12.746</f>
-        <v>1178.8610000000001</v>
+        <f>292.763+715.402</f>
+        <v>1008.165</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="J6" t="s">
         <v>4</v>
       </c>
@@ -744,135 +801,268 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C7" s="6"/>
-      <c r="D7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7"/>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" s="1">
         <f>+K4-K5+K6</f>
-        <v>2070.8176968600001</v>
+        <v>1011.0176655000002</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="7"/>
       <c r="J9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C10" s="6"/>
-      <c r="D10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="D10" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="7"/>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C11" s="6"/>
-      <c r="D11" s="12" t="s">
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C12" s="9"/>
-      <c r="D12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="11"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2233.989</v>
+      </c>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1379.6089999999999</v>
+      </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" location="'BEAM-101'!A1" display="BEAM-101" xr:uid="{88F74A8F-422D-42A0-9B9C-29C59CC99BF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F36B43-3E01-4C8C-917D-26C987FF908B}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{36DA8DC7-5FB7-4E52-872C-4814CDA1F0CF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F961B71-6784-402B-BF74-F57F62AC1B5D}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A0BBC8F7-9923-4C3B-9D69-63A478D07074}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>